--- a/tag.xlsx
+++ b/tag.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DeepLearing\Robot_KSG\poem\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\다운로드\Robot_KimSatGat-hyokeun\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90A28CAF-DC51-4EAF-81D8-DFDF1111476C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D30121D9-F492-4C03-B0C3-49B6E265D56A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16404" yWindow="192" windowWidth="6396" windowHeight="11652" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1110" yWindow="-120" windowWidth="27810" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="79">
   <si>
     <t>기쁨</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -95,10 +95,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>억울함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>걱정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -171,10 +167,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>서러움</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>외로움</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -233,37 +225,145 @@
   <si>
     <t>목표: 220(176+44)(16*11+44)</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김의중</t>
+  </si>
+  <si>
+    <t>김형석</t>
+  </si>
+  <si>
+    <t>류준현</t>
+  </si>
+  <si>
+    <t>이효근</t>
+  </si>
+  <si>
+    <t>기쁨</t>
+  </si>
+  <si>
+    <t>즐거움</t>
+  </si>
+  <si>
+    <t>사랑1-연인</t>
+  </si>
+  <si>
+    <t>희망</t>
+  </si>
+  <si>
+    <t>활기</t>
+  </si>
+  <si>
+    <t>순수</t>
+  </si>
+  <si>
+    <t>잔잔</t>
+  </si>
+  <si>
+    <t>슬픔</t>
+  </si>
+  <si>
+    <t>의지</t>
+  </si>
+  <si>
+    <t>ㄱ</t>
+  </si>
+  <si>
+    <t>ㄴ</t>
+  </si>
+  <si>
+    <t>ㄷ</t>
+  </si>
+  <si>
+    <t>ㄹ</t>
+  </si>
+  <si>
+    <t>ㅁ</t>
+  </si>
+  <si>
+    <t>ㅂ</t>
+  </si>
+  <si>
+    <t>ㅅ</t>
+  </si>
+  <si>
+    <t>ㅇ</t>
+  </si>
+  <si>
+    <t>ㅈ</t>
+  </si>
+  <si>
+    <t>ㅊ</t>
+  </si>
+  <si>
+    <t>ㅋ</t>
+  </si>
+  <si>
+    <t>ㅌ</t>
+  </si>
+  <si>
+    <t>ㅍ</t>
+  </si>
+  <si>
+    <t>ㅎ</t>
+  </si>
+  <si>
+    <t>태그1</t>
+  </si>
+  <si>
+    <t>태그2</t>
+  </si>
+  <si>
+    <t>태그3</t>
+  </si>
+  <si>
+    <t>태그4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy/mm/dd;@"/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -271,13 +371,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -558,19 +680,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:P42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.09765625" customWidth="1"/>
-    <col min="2" max="2" width="10.3984375" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="6" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="16" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -584,13 +711,13 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -601,26 +728,26 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
         <v>19</v>
       </c>
-      <c r="E2" t="s">
-        <v>20</v>
-      </c>
       <c r="F2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4">
         <v>13</v>
@@ -638,54 +765,54 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5">
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6" s="1">
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8">
         <v>15</v>
       </c>
       <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="D8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -693,12 +820,12 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10">
         <v>13</v>
@@ -707,43 +834,43 @@
         <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B11">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B12">
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" s="1">
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
@@ -751,13 +878,13 @@
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -771,48 +898,549 @@
         <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B16" s="1">
         <v>12</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" t="s">
         <v>44</v>
       </c>
-      <c r="E16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:16">
       <c r="A18" s="1"/>
       <c r="B18">
         <f>SUM($B$1:B16)</f>
         <v>220</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="B22" s="4"/>
+      <c r="C22" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="B23" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="B24" s="6" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A19" s="1" t="s">
+      <c r="C24" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="B25" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="B26" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" t="s">
-        <v>15</v>
+    </row>
+    <row r="28" spans="1:16" s="2" customFormat="1">
+      <c r="B28" s="3"/>
+      <c r="C28" s="5">
+        <v>44129</v>
+      </c>
+      <c r="D28" s="5">
+        <v>44130</v>
+      </c>
+      <c r="E28" s="5">
+        <v>44131</v>
+      </c>
+      <c r="F28" s="5">
+        <v>44132</v>
+      </c>
+      <c r="G28" s="5">
+        <v>44133</v>
+      </c>
+      <c r="H28" s="5">
+        <v>44134</v>
+      </c>
+      <c r="I28" s="5">
+        <v>44135</v>
+      </c>
+      <c r="J28" s="5">
+        <v>44136</v>
+      </c>
+      <c r="K28" s="5">
+        <v>44137</v>
+      </c>
+      <c r="L28" s="5">
+        <v>44138</v>
+      </c>
+      <c r="M28" s="5">
+        <v>44139</v>
+      </c>
+      <c r="N28" s="5">
+        <v>44140</v>
+      </c>
+      <c r="O28" s="5">
+        <v>44141</v>
+      </c>
+      <c r="P28" s="5">
+        <v>44142</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="B29" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="O29" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="P29" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="B30" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="P30" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="B31" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="B32" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+    </row>
+    <row r="33" spans="2:16">
+      <c r="B33" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+    </row>
+    <row r="34" spans="2:16">
+      <c r="B34" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+    </row>
+    <row r="35" spans="2:16">
+      <c r="B35" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+    </row>
+    <row r="36" spans="2:16">
+      <c r="B36" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
+    </row>
+    <row r="37" spans="2:16">
+      <c r="B37" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
+    </row>
+    <row r="38" spans="2:16">
+      <c r="B38" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K38" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L38" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="4"/>
+    </row>
+    <row r="39" spans="2:16">
+      <c r="B39" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K39" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="L39" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M39" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="N39" s="4"/>
+      <c r="O39" s="4"/>
+      <c r="P39" s="4"/>
+    </row>
+    <row r="40" spans="2:16">
+      <c r="B40" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L40" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M40" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="N40" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="O40" s="4"/>
+      <c r="P40" s="4"/>
+    </row>
+    <row r="41" spans="2:16">
+      <c r="B41" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="M41" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="N41" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="O41" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="P41" s="4"/>
+    </row>
+    <row r="42" spans="2:16">
+      <c r="B42" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="N42" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="O42" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="P42" s="4" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
